--- a/biology/Zoologie/Cochlostoma/Cochlostoma.xlsx
+++ b/biology/Zoologie/Cochlostoma/Cochlostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochlostoma est un genre de mollusques gastéropodes terrestres, de la famille des Megalomastomatidae et de la sous-famille des Cochlostomatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cochlostoma a été décrit par le zoologiste italien, Giorgio Jan en 1830[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cochlostoma a été décrit par le zoologiste italien, Giorgio Jan en 1830.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces [2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces 
 Cochlostoma acutum (Caziot, 1908)
 Cochlostoma apricum (Mousson, 1847)
 Cochlostoma hidalgoi (Crosse, 1864)
@@ -557,7 +573,7 @@
 Cochlostoma septemspirale (Razoumowsky, 1789)
 Cochlostoma simrothi (Caziot, 1908)
 Cochlostoma subalpinum (Pini, 1884)
-Le genre Cochlostoma contient au moins 140 espèces et sous-espèces[3],[4]:
+Le genre Cochlostoma contient au moins 140 espèces et sous-espèces,:
 sous-genre Auritus
 Cochlostoma auritum (Rossmässler, 1837)
 Cochlostoma fuchsi Feher, 2004
